--- a/RESULTS/2018/B1 SET 6 [2.8..5.6] Single/Fit .xlsx
+++ b/RESULTS/2018/B1 SET 6 [2.8..5.6] Single/Fit .xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="84">
   <si>
     <t>Feature index</t>
   </si>
@@ -84,15 +84,24 @@
     <t>R2 Adjusted Test</t>
   </si>
   <si>
+    <t>11Linear011155</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>001111</t>
+  </si>
+  <si>
     <t>11Linear010155</t>
   </si>
   <si>
     <t>O-H</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>001101</t>
   </si>
   <si>
@@ -105,12 +114,129 @@
     <t>001100</t>
   </si>
   <si>
+    <t>11Linear040155</t>
+  </si>
+  <si>
+    <t>004101</t>
+  </si>
+  <si>
+    <t>11Linear030155</t>
+  </si>
+  <si>
+    <t>003101</t>
+  </si>
+  <si>
+    <t>11Linear030055</t>
+  </si>
+  <si>
+    <t>003100</t>
+  </si>
+  <si>
+    <t>11Linear060055</t>
+  </si>
+  <si>
+    <t>006100</t>
+  </si>
+  <si>
+    <t>11Linear071155</t>
+  </si>
+  <si>
+    <t>007111</t>
+  </si>
+  <si>
+    <t>11Linear061155</t>
+  </si>
+  <si>
+    <t>006111</t>
+  </si>
+  <si>
+    <t>11Linear091155</t>
+  </si>
+  <si>
+    <t>009111</t>
+  </si>
+  <si>
+    <t>11Linear111155</t>
+  </si>
+  <si>
+    <t>011111</t>
+  </si>
+  <si>
+    <t>11Linear090055</t>
+  </si>
+  <si>
+    <t>009100</t>
+  </si>
+  <si>
+    <t>11Linear081155</t>
+  </si>
+  <si>
+    <t>008111</t>
+  </si>
+  <si>
+    <t>11Linear150155</t>
+  </si>
+  <si>
+    <t>015101</t>
+  </si>
+  <si>
+    <t>11Linear140155</t>
+  </si>
+  <si>
+    <t>014101</t>
+  </si>
+  <si>
+    <t>11Linear050055</t>
+  </si>
+  <si>
+    <t>005100</t>
+  </si>
+  <si>
+    <t>11Linear101155</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>11Linear080055</t>
+  </si>
+  <si>
+    <t>008100</t>
+  </si>
+  <si>
+    <t>11Linear060155</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>11Linear050155</t>
+  </si>
+  <si>
+    <t>005101</t>
+  </si>
+  <si>
+    <t>11Linear040055</t>
+  </si>
+  <si>
+    <t>004100</t>
+  </si>
+  <si>
+    <t>11Linear080155</t>
+  </si>
+  <si>
+    <t>008101</t>
+  </si>
+  <si>
+    <t>11Linear051155</t>
+  </si>
+  <si>
+    <t>005111</t>
+  </si>
+  <si>
     <t>11Linear031155</t>
   </si>
   <si>
-    <t>H-H</t>
-  </si>
-  <si>
     <t>003111</t>
   </si>
   <si>
@@ -120,52 +246,10 @@
     <t>004111</t>
   </si>
   <si>
-    <t>11Linear061155</t>
-  </si>
-  <si>
-    <t>006111</t>
-  </si>
-  <si>
-    <t>11Linear080055</t>
-  </si>
-  <si>
-    <t>008100</t>
-  </si>
-  <si>
-    <t>11Linear111155</t>
-  </si>
-  <si>
-    <t>011111</t>
-  </si>
-  <si>
-    <t>11Linear081155</t>
-  </si>
-  <si>
-    <t>008111</t>
-  </si>
-  <si>
-    <t>11Linear091155</t>
-  </si>
-  <si>
-    <t>009111</t>
-  </si>
-  <si>
-    <t>11Linear101155</t>
-  </si>
-  <si>
-    <t>010111</t>
-  </si>
-  <si>
-    <t>11Linear121155</t>
-  </si>
-  <si>
-    <t>012111</t>
-  </si>
-  <si>
-    <t>11Linear131155</t>
-  </si>
-  <si>
-    <t>013111</t>
+    <t>11Linear100155</t>
+  </si>
+  <si>
+    <t>010101</t>
   </si>
   <si>
     <t>11Linear141155</t>
@@ -180,88 +264,16 @@
     <t>009101</t>
   </si>
   <si>
+    <t>11Linear150055</t>
+  </si>
+  <si>
+    <t>015100</t>
+  </si>
+  <si>
     <t>11Linear070155</t>
   </si>
   <si>
     <t>007101</t>
-  </si>
-  <si>
-    <t>11Linear051155</t>
-  </si>
-  <si>
-    <t>005111</t>
-  </si>
-  <si>
-    <t>11Linear070055</t>
-  </si>
-  <si>
-    <t>007100</t>
-  </si>
-  <si>
-    <t>11Linear020155</t>
-  </si>
-  <si>
-    <t>002101</t>
-  </si>
-  <si>
-    <t>11Linear090055</t>
-  </si>
-  <si>
-    <t>009100</t>
-  </si>
-  <si>
-    <t>11Linear071155</t>
-  </si>
-  <si>
-    <t>007111</t>
-  </si>
-  <si>
-    <t>11Linear060055</t>
-  </si>
-  <si>
-    <t>006100</t>
-  </si>
-  <si>
-    <t>11Linear011155</t>
-  </si>
-  <si>
-    <t>001111</t>
-  </si>
-  <si>
-    <t>11Linear140155</t>
-  </si>
-  <si>
-    <t>014101</t>
-  </si>
-  <si>
-    <t>11Linear040155</t>
-  </si>
-  <si>
-    <t>004101</t>
-  </si>
-  <si>
-    <t>11Linear130155</t>
-  </si>
-  <si>
-    <t>013101</t>
-  </si>
-  <si>
-    <t>11Linear120155</t>
-  </si>
-  <si>
-    <t>012101</t>
-  </si>
-  <si>
-    <t>11Linear030155</t>
-  </si>
-  <si>
-    <t>003101</t>
-  </si>
-  <si>
-    <t>11Linear150055</t>
-  </si>
-  <si>
-    <t>015100</t>
   </si>
   <si>
     <t>11Linear120055</t>
@@ -685,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -709,32 +721,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1100899449285325</v>
+        <v>0.07303962388795647</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.197479252871498e-07</v>
+        <v>3.261524216338596e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005654625763807449</v>
+        <v>0.0005710975587707056</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9247363709083748</v>
+        <v>0.923228853268895</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9236051540382602</v>
+        <v>0.9220749783180268</v>
       </c>
       <c r="P2" t="n">
-        <v>3.837039067354383e-07</v>
+        <v>3.853794489365485e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006194383800955817</v>
+        <v>0.0006207893756633956</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8599054785748194</v>
+        <v>0.8592937196673083</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8508084317290284</v>
+        <v>0.8501569482171335</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -742,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -760,13 +772,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2132151043044648</v>
+        <v>-0.186331200104589</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -783,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -792,7 +804,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -801,13 +813,13 @@
         <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>12.90736097341762</v>
+        <v>0.4387979551051414</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -824,13 +836,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -848,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-98.28700754138123</v>
+        <v>-1.541035960856892</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -865,16 +877,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -889,7 +901,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1991.620486158262</v>
+        <v>0.8674616619239284</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -906,16 +918,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
@@ -930,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>21.57091026457658</v>
+        <v>-2.02189670016084</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -947,7 +959,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
@@ -956,7 +968,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
@@ -965,13 +977,13 @@
         <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1492070.987097111</v>
+        <v>36.08526826114024</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -988,16 +1000,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -1012,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-69074.73649463287</v>
+        <v>84.05399666423723</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1029,16 +1041,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -1053,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>367565.4196159333</v>
+        <v>-16.1718100167009</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1070,16 +1082,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
@@ -1094,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-966473.0476811808</v>
+        <v>109.4072992462633</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1111,16 +1123,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -1135,7 +1147,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-1375673.392560693</v>
+        <v>-21.47514780741962</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1152,7 +1164,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
@@ -1161,7 +1173,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
@@ -1170,13 +1182,13 @@
         <v>45</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>703619.689737631</v>
+        <v>-262.9857221570735</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1193,16 +1205,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -1217,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-154008.3892881026</v>
+        <v>-156.297905973844</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1234,16 +1246,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
@@ -1258,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>5.234847466286737</v>
+        <v>-1741.849040585361</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1275,16 +1287,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="F16" t="s">
         <v>20</v>
@@ -1299,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.799031383590773</v>
+        <v>1043.570043078418</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1391,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1415,32 +1427,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1057358196875834</v>
+        <v>0.05431704077107711</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.698400079229589e-07</v>
+        <v>3.6984000792296e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006081447261326525</v>
+        <v>0.0006081447261326534</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9129454830565058</v>
+        <v>0.9129454830565055</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9124267868284412</v>
+        <v>0.9124267868284409</v>
       </c>
       <c r="P2" t="n">
-        <v>4.390242064359612e-07</v>
+        <v>4.390242064359519e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006625890177447564</v>
+        <v>0.0006625890177447495</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8397074280061397</v>
+        <v>0.8397074280061432</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8357001137062933</v>
+        <v>0.8357001137062967</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1448,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1466,13 +1478,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2116549593227204</v>
+        <v>-0.105735819687582</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1489,10 +1501,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1504,16 +1516,16 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05431704077107791</v>
+        <v>0.2116549593227173</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1530,22 +1542,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -1554,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03712419460368681</v>
+        <v>-0.05417831352079701</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1571,22 +1583,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -1595,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.05417831352079694</v>
+        <v>0.03712419460368707</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1615,10 +1627,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>-6</v>
@@ -1627,7 +1639,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -1636,7 +1648,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.401111300859432</v>
+        <v>3.401111300859423</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1728,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1752,32 +1764,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1348195662061125</v>
+        <v>0.0662249785853275</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.29641081939628e-07</v>
+        <v>4.296410819396275e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006554701228428554</v>
+        <v>0.000655470122842855</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8988692514436519</v>
+        <v>0.898869251443652</v>
       </c>
       <c r="O2" t="n">
         <v>0.898367610825813</v>
       </c>
       <c r="P2" t="n">
-        <v>4.996215673208769e-07</v>
+        <v>4.996215673179336e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0007068391382209087</v>
+        <v>0.0007068391382188267</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8175826642917724</v>
+        <v>0.817582664292847</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8137980722646307</v>
+        <v>0.8137980722657276</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1785,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -1803,13 +1815,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2726492463061228</v>
+        <v>-0.1348195662051863</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1826,10 +1838,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -1841,16 +1853,16 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06622497858578988</v>
+        <v>0.2726492463042536</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1867,31 +1879,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5" t="n">
-        <v>-7</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04201051760089788</v>
+        <v>10277.69134927119</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1908,31 +1920,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>10277.69134916738</v>
+        <v>0.0420105176017043</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2024,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2048,32 +2060,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1325134176992471</v>
+        <v>0.06311161778308759</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>5.043479779660325e-07</v>
+        <v>5.043479779660327e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0007101746108993424</v>
+        <v>0.0007101746108993426</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8812844239328294</v>
+        <v>0.8812844239328292</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8808137972685393</v>
+        <v>0.8808137972685391</v>
       </c>
       <c r="P2" t="n">
-        <v>5.889483826212578e-07</v>
+        <v>5.889483826212587e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0007674297248747001</v>
+        <v>0.0007674297248747007</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7849684604218836</v>
+        <v>0.7849684604218833</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7814142200982783</v>
+        <v>0.7814142200982781</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2081,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2099,13 +2111,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2756345741681127</v>
+        <v>-0.1325134176992469</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2122,10 +2134,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -2137,16 +2149,16 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06311161778308777</v>
+        <v>0.2756345741681125</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2166,10 +2178,10 @@
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E5" t="n">
         <v>-5</v>
@@ -2178,7 +2190,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -2187,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03142216734553605</v>
+        <v>0.03142216734553615</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2279,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2303,32 +2315,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1450140142546303</v>
+        <v>0.07245892637916343</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>8.154301450741818e-07</v>
+        <v>8.154301450741815e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000903011708160078</v>
+        <v>0.0009030117081600778</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8080605779259459</v>
+        <v>0.808060577925946</v>
       </c>
       <c r="O2" t="n">
-        <v>0.8074904608306764</v>
+        <v>0.8074904608306765</v>
       </c>
       <c r="P2" t="n">
-        <v>6.97347219016802e-07</v>
+        <v>6.973472190167419e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0008350731818330667</v>
+        <v>0.0008350731818330306</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7453908516425418</v>
+        <v>0.7453908516425638</v>
       </c>
       <c r="S2" t="n">
-        <v>0.7422475288233139</v>
+        <v>0.7422475288233362</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2336,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -2354,13 +2366,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2896642187288344</v>
+        <v>-0.1450140142546286</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2377,10 +2389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -2392,16 +2404,16 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07245892637916562</v>
+        <v>0.2896642187288354</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2493,22 +2505,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
       <c r="E2" t="n">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -2517,20 +2529,20 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.8033179904760619</v>
+        <v>0.08127646668344519</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>2.647140444408673e-06</v>
+        <v>2.647140444408672e-06</v>
       </c>
       <c r="M2" t="n">
         <v>0.001627003517024064</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3769048027989779</v>
+        <v>0.376904802798978</v>
       </c>
       <c r="O2" t="n">
-        <v>0.375672171350509</v>
+        <v>0.3756721713505091</v>
       </c>
       <c r="P2" t="n">
         <v>2.431599680002302e-06</v>
@@ -2539,10 +2551,10 @@
         <v>0.001559358739996125</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1121961817750691</v>
+        <v>0.1121961817750692</v>
       </c>
       <c r="S2" t="n">
-        <v>0.1049191012978155</v>
+        <v>0.1049191012978156</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2550,22 +2562,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -2574,7 +2586,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08127646668344517</v>
+        <v>-0.8033179904760612</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2669,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -2681,7 +2693,7 @@
         <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -2726,10 +2738,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -2738,7 +2750,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -2767,10 +2779,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -2779,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -2808,10 +2820,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
         <v>-6</v>
@@ -2820,7 +2832,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -2849,10 +2861,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>-12</v>
@@ -2861,7 +2873,7 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2962,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -2986,32 +2998,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.08781543538397592</v>
+        <v>0.07123546565306339</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.250553097313476e-07</v>
+        <v>3.296638932521852e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005701362203292715</v>
+        <v>0.0005741636467525484</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9234870961432734</v>
+        <v>0.9224023081170849</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9224148432363724</v>
+        <v>0.9213148529755826</v>
       </c>
       <c r="P2" t="n">
-        <v>3.981692472818334e-07</v>
+        <v>4.08026649296265e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006310065350547754</v>
+        <v>0.0006387696371120538</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8546240234592301</v>
+        <v>0.8510249774410211</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8458513352197008</v>
+        <v>0.8420351053900482</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3019,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -3037,13 +3049,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2073243793077755</v>
+        <v>-0.1958330121905906</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3060,7 +3072,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -3069,7 +3081,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -3078,13 +3090,13 @@
         <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>6.196204700252879</v>
+        <v>0.4827074790428729</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3101,22 +3113,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -3125,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-610.551586832718</v>
+        <v>-2.764443355928924</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3142,16 +3154,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
@@ -3166,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>3739.357844231108</v>
+        <v>1.241891634954343</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3183,22 +3195,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -3207,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>8.957985011230749</v>
+        <v>-3.097012655703523</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3224,31 +3236,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1670914.814401565</v>
+        <v>19.41693367357293</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3265,16 +3277,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
@@ -3289,7 +3301,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-87260.88361355099</v>
+        <v>57.79066141208021</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3306,16 +3318,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -3330,7 +3342,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>437384.890686854</v>
+        <v>-12.43725351210034</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3350,10 +3362,10 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
         <v>-10</v>
@@ -3362,7 +3374,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3371,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-1108883.002733877</v>
+        <v>79.81043040137281</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3388,16 +3400,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -3412,7 +3424,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-1514396.144998103</v>
+        <v>-44.79765583268585</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3429,31 +3441,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
         <v>26</v>
       </c>
       <c r="E13" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>764829.2151059483</v>
+        <v>-96.83256846061364</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3470,16 +3482,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -3494,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-165792.9197475485</v>
+        <v>-80.90608876039126</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3511,22 +3523,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F15" t="s">
         <v>20</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -3535,7 +3547,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.04998663894366473</v>
+        <v>2.812159960350027</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3627,7 +3639,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -3651,32 +3663,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.128857407270068</v>
+        <v>0.06771429958891265</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.426721660594131e-07</v>
+        <v>3.340588999790788e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005853820684471067</v>
+        <v>0.0005779782867712928</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9193403654358099</v>
+        <v>0.9213677927067001</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9182917901864754</v>
+        <v>0.9203455740118872</v>
       </c>
       <c r="P2" t="n">
-        <v>4.23240300761381e-07</v>
+        <v>4.291700943213885e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006505692128908199</v>
+        <v>0.0006551107496609932</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8454703057691362</v>
+        <v>0.8433052728456841</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8368484773356545</v>
+        <v>0.8345626485838553</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3684,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -3702,13 +3714,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2492448553671979</v>
+        <v>-0.1565767237407447</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3725,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -3734,7 +3746,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -3743,13 +3755,13 @@
         <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>17.08673202785562</v>
+        <v>0.3608371195196081</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3766,22 +3778,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -3790,7 +3802,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>5269.997916113205</v>
+        <v>-1.559681548067462</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3807,22 +3819,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -3831,7 +3843,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-144.6694849581012</v>
+        <v>0.3473941294788421</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3848,22 +3860,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -3872,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>38.79816604530222</v>
+        <v>-2.080069021702844</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3889,31 +3901,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>646359.6815172435</v>
+        <v>4.260781934481285</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3930,22 +3942,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -3954,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-28620.25427587239</v>
+        <v>-4.181260178563093</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3971,22 +3983,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3995,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>60617.12786218247</v>
+        <v>-234.6989144297589</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4015,10 +4027,10 @@
         <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
         <v>-10</v>
@@ -4027,7 +4039,7 @@
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4036,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-280422.0254693256</v>
+        <v>247.6229888460358</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4053,16 +4065,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -4077,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-711663.5907360807</v>
+        <v>-92.67737335275154</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4094,22 +4106,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4118,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>402459.3984496371</v>
+        <v>4.200775574279088</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4135,16 +4147,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
         <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E14" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
@@ -4159,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>-93922.62040601793</v>
+        <v>83.31927348421448</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -4251,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4275,32 +4287,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1290636444264261</v>
+        <v>0.08525074353130047</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.511380573942297e-07</v>
+        <v>3.377897565113894e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005925690317543009</v>
+        <v>0.0005811968311264174</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9173476278604795</v>
+        <v>0.9204896077990429</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9163567902324333</v>
+        <v>0.9195364362641663</v>
       </c>
       <c r="P2" t="n">
-        <v>4.643255040655999e-07</v>
+        <v>4.183040112793952e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006814143409597423</v>
+        <v>0.0006467642625249135</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8304696456415618</v>
+        <v>0.8472725994139381</v>
       </c>
       <c r="S2" t="n">
-        <v>0.821775781315488</v>
+        <v>0.8394404250249092</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4308,7 +4320,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -4326,13 +4338,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2493681694696129</v>
+        <v>-0.1779091971994967</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4349,7 +4361,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -4358,7 +4370,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
@@ -4367,13 +4379,13 @@
         <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>27.78540099925529</v>
+        <v>0.3765215905267437</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4390,22 +4402,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -4414,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-11940.56945903941</v>
+        <v>-4.812489765314663</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4431,22 +4443,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -4455,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-416.9497496704219</v>
+        <v>0.6264083832009116</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4472,22 +4484,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -4496,7 +4508,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>39.68849608984151</v>
+        <v>-2.227831562360896</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4513,31 +4525,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-11</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>6115.412732590776</v>
+        <v>4.492131896854446</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4554,22 +4566,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -4578,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>30272.39181696486</v>
+        <v>-1.516296435582695</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4595,22 +4607,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -4619,7 +4631,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-48388.170185203</v>
+        <v>0.3924443910132827</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4636,22 +4648,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4660,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-26015.0354233261</v>
+        <v>1.404413743048122</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4677,22 +4689,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4701,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>47422.54335485528</v>
+        <v>-0.2343564866822527</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4718,22 +4730,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" t="n">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F13" t="s">
         <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4742,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2928.030065305084</v>
+        <v>5.819636506271736</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4834,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -4858,32 +4870,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.08555963600744375</v>
+        <v>0.07997047638014007</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.48090107398204e-07</v>
+        <v>3.408844929253013e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005899916163795922</v>
+        <v>0.0005838531432863074</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9180650673177791</v>
+        <v>0.9197611555553455</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9171655820288526</v>
+        <v>0.9188802899975699</v>
       </c>
       <c r="P2" t="n">
-        <v>4.643401927685774e-07</v>
+        <v>4.119926526838924e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000681425118973888</v>
+        <v>0.0006418665380621523</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8304642826343631</v>
+        <v>0.8495769459333737</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8225285682044823</v>
+        <v>0.8425358668068508</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -4891,7 +4903,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -4909,13 +4921,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2009088296259971</v>
+        <v>-0.1650602930783923</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4932,31 +4944,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.05464511531233301</v>
+        <v>0.3496572139885688</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4973,22 +4985,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -4997,7 +5009,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-111.5931000718987</v>
+        <v>-4.262502948071333</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5014,22 +5026,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -5038,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>15.08680369455672</v>
+        <v>0.5304165273043761</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5055,22 +5067,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -5079,7 +5091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.784293710522991</v>
+        <v>-1.958414856351264</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5096,31 +5108,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04146438023282878</v>
+        <v>4.052348434273889</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5137,22 +5149,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5161,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>329.9197566638149</v>
+        <v>0.6850270086523536</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5178,22 +5190,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5202,7 +5214,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-463.8544056705244</v>
+        <v>5.218711140127213</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5219,22 +5231,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>-11</v>
+        <v>-5</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5243,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>-44.07400504183548</v>
+        <v>-0.390343221842385</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5260,22 +5272,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E12" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -5284,7 +5296,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>273.8352721776742</v>
+        <v>-0.2998109226135355</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5376,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -5400,32 +5412,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.08739344054349206</v>
+        <v>0.05393079126112901</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.562215282477448e-07</v>
+        <v>3.484626655636993e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005968429678296837</v>
+        <v>0.0005903072636887499</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9161510588304429</v>
+        <v>0.9179773729893242</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9153150773631492</v>
+        <v>0.9171596000380713</v>
       </c>
       <c r="P2" t="n">
-        <v>4.517767695901568e-07</v>
+        <v>4.151201655669336e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006721434144512291</v>
+        <v>0.000644298196153717</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8350513267763358</v>
+        <v>0.8484350565418153</v>
       </c>
       <c r="S2" t="n">
-        <v>0.828061976216011</v>
+        <v>0.842012813174943</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5433,7 +5445,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -5451,13 +5463,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2040125190797503</v>
+        <v>-0.121315189495417</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5474,31 +5486,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.05364233009196589</v>
+        <v>0.2747173915087365</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5515,22 +5527,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -5539,7 +5551,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>6.620300224704412</v>
+        <v>-2.355135623787301</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5556,22 +5568,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -5580,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.466276561340558</v>
+        <v>0.2054537456304982</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5597,22 +5609,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -5621,7 +5633,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.740591069074759</v>
+        <v>-1.32016921665098</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5638,31 +5650,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.03854917509392877</v>
+        <v>3.099081209510647</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5682,10 +5694,10 @@
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
         <v>-7</v>
@@ -5694,7 +5706,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5703,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-10.0528172947969</v>
+        <v>-0.2245490724047921</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5720,22 +5732,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5744,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>4.553705206168004</v>
+        <v>3.088588271771059</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5761,22 +5773,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5785,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4584562853670726</v>
+        <v>0.2393778905541344</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5877,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -5901,32 +5913,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1052004438756733</v>
+        <v>0.05317392628024364</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.51252659806259e-07</v>
+        <v>3.552238884803926e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005926657234953435</v>
+        <v>0.0005960066178159371</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9173206522564181</v>
+        <v>0.9163858875297992</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9165795027248521</v>
+        <v>0.915636358633154</v>
       </c>
       <c r="P2" t="n">
-        <v>4.32671153254265e-07</v>
+        <v>4.132824930167892e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006577774344368048</v>
+        <v>0.0006428705103026497</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8420269976781058</v>
+        <v>0.8491060110250235</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8360280229063883</v>
+        <v>0.8433758595449611</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -5934,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -5952,13 +5964,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2026727299691521</v>
+        <v>-0.120831123328501</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5975,31 +5987,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>22.21520750237</v>
+        <v>0.271724243183157</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6016,22 +6028,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -6040,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-4.289014303856776</v>
+        <v>-0.9412837563383062</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6057,22 +6069,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-10</v>
+        <v>-3</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6081,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>2.384574723521536</v>
+        <v>0.322384145039584</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6098,22 +6110,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -6122,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.700167494765076</v>
+        <v>-1.2482909750873</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6139,31 +6151,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
       <c r="E8" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05504562985119421</v>
+        <v>2.975098949426832</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6180,22 +6192,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6204,7 +6216,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.991004443041146</v>
+        <v>0.03972318482658634</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6221,22 +6233,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -6245,7 +6257,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.117430678242018</v>
+        <v>1.180345149104801</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6337,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -6361,32 +6373,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1039507180419822</v>
+        <v>0.05100881534321598</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.523135153572158e-07</v>
+        <v>3.542814557897953e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005935600351752262</v>
+        <v>0.0005952154700524805</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9170709435565562</v>
+        <v>0.916607721352193</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9164108117639715</v>
+        <v>0.9159439022186782</v>
       </c>
       <c r="P2" t="n">
-        <v>4.258695997985573e-07</v>
+        <v>4.237905081998836e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006525868523028619</v>
+        <v>0.0006509919417319108</v>
       </c>
       <c r="R2" t="n">
-        <v>0.8445103197386814</v>
+        <v>0.8452694189748435</v>
       </c>
       <c r="S2" t="n">
-        <v>0.8392837758643514</v>
+        <v>0.8400683910412248</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6394,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -6412,13 +6424,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2012954025405688</v>
+        <v>-0.09952911123173154</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6435,31 +6447,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>71</v>
-      </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>13.14400059169331</v>
+        <v>0.1959762401316107</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6476,22 +6488,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H5" t="n">
         <v>4</v>
@@ -6500,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2353670635776905</v>
+        <v>-0.1619429715175728</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6517,22 +6529,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6541,7 +6553,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1263658456753341</v>
+        <v>2.78149983691022</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6561,10 +6573,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
         <v>-6</v>
@@ -6573,7 +6585,7 @@
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -6582,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.732053319894074</v>
+        <v>3.933422455409963</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6599,22 +6611,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6623,7 +6635,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05415425620946801</v>
+        <v>-0.03823297142157538</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6640,22 +6652,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E9" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6664,7 +6676,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.2200371403839419</v>
+        <v>0.04637327337954515</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6756,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -6780,32 +6792,32 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1055676027133131</v>
+        <v>0.05313175234526311</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>3.574338870671483e-07</v>
+        <v>3.576471270056232e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0005978577481869314</v>
+        <v>0.0005980360582821267</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9158656886457025</v>
+        <v>0.9158154953203745</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9152802610319052</v>
+        <v>0.9152297184488464</v>
       </c>
       <c r="P2" t="n">
-        <v>4.226408811630513e-07</v>
+        <v>4.198249035405817e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0006501083610930191</v>
+        <v>0.0006479389659069608</v>
       </c>
       <c r="R2" t="n">
-        <v>0.845689160464871</v>
+        <v>0.8467173049023888</v>
       </c>
       <c r="S2" t="n">
-        <v>0.841169596127022</v>
+        <v>0.8422278535815383</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -6813,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
@@ -6831,13 +6843,13 @@
         <v>24</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2104024821857246</v>
+        <v>-0.1033829569196534</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6854,31 +6866,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" t="n">
-        <v>-12</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>6.688366154453297</v>
+        <v>0.2028147704777205</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6895,13 +6907,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
         <v>-4</v>
@@ -6919,7 +6931,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.03957137581946005</v>
+        <v>-0.1518419400892999</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6936,22 +6948,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>-9</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -6960,7 +6972,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.1248536666834947</v>
+        <v>1.424325521533073</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6977,22 +6989,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -7001,7 +7013,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>9.069479114499469</v>
+        <v>3.746945399545986</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -7018,22 +7030,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E8" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -7042,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0533582403114195</v>
+        <v>0.0397769148332027</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
